--- a/Documentation/Backend/DatabaseDesign/DatabaseModel.xlsx
+++ b/Documentation/Backend/DatabaseDesign/DatabaseModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathantaylor/Documents/MScComputerScience/WebApplication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9DD1A6C-8557-3D44-83D3-2A66B34DB2EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE47AFC-8C20-4D48-A45A-97CF27A4D383}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5200" yWindow="1860" windowWidth="27980" windowHeight="17440" xr2:uid="{E3C26631-BDB8-074E-89A3-9881AD49208F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{E3C26631-BDB8-074E-89A3-9881AD49208F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,25 +33,190 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>news_topic</t>
+  </si>
+  <si>
+    <t>Table: Quiz Question</t>
+  </si>
+  <si>
+    <t>Table: User answer</t>
+  </si>
+  <si>
+    <t>quiz_question</t>
+  </si>
+  <si>
+    <t>user_input</t>
+  </si>
+  <si>
+    <t>Table: News topic</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>occurred_on (not unique)</t>
+  </si>
+  <si>
+    <t>headline (not unique)</t>
+  </si>
+  <si>
+    <t>nkwnekekms,sq</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>www.dkmdwemd.com/kkkkk</t>
+  </si>
+  <si>
+    <t>www.sqmmwq.com/mojoj</t>
+  </si>
+  <si>
+    <t>www.dmdwsws.com/qqww</t>
+  </si>
+  <si>
+    <t>www.dkeqwqqq.com/q1aa</t>
+  </si>
+  <si>
+    <t>earhthquake in thailand</t>
+  </si>
+  <si>
+    <t>bankruptcy in prague</t>
+  </si>
+  <si>
+    <t>recession in the UK</t>
+  </si>
+  <si>
+    <t>dog turns into cat</t>
+  </si>
+  <si>
+    <t>whw2qwkqmwq</t>
+  </si>
+  <si>
+    <t>qwqewqewqewq</t>
+  </si>
+  <si>
+    <t>eweweqeqw</t>
+  </si>
+  <si>
+    <t>Natural Disasters</t>
+  </si>
+  <si>
+    <t>Wildlife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE </t>
+  </si>
+  <si>
+    <t>FALSE(FAKE)</t>
+  </si>
+  <si>
+    <t>Coronavirus</t>
+  </si>
+  <si>
+    <t>quiz question</t>
+  </si>
+  <si>
+    <t>// shown here, that a quiz question can be about multiple topics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Table: Topic Library (Join Table)</t>
+  </si>
+  <si>
+    <t>// if user got it right</t>
+  </si>
+  <si>
+    <t>// if user got it wrong</t>
+  </si>
+  <si>
+    <t>user_follow_up_input (X / ?)</t>
+  </si>
+  <si>
+    <t>// Note, 'X' means user responded they got it wrong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// '?' Means user didn't know about topic </t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Storing data here</t>
+  </si>
+  <si>
+    <t>news_topic (not null) (unique)</t>
+  </si>
+  <si>
+    <t>correct_answer (boolean true) (not null)</t>
+  </si>
+  <si>
+    <t>URL (unique) (not null)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text_body </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ArialNarrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ArialNarrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -59,14 +224,195 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -379,12 +725,461 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFA380F-E9EF-9E45-9C22-FC611C08F199}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="14.19921875" customWidth="1"/>
+    <col min="3" max="3" width="28.3984375" customWidth="1"/>
+    <col min="4" max="4" width="28.19921875" customWidth="1"/>
+    <col min="5" max="5" width="28.3984375" customWidth="1"/>
+    <col min="6" max="6" width="31.796875" customWidth="1"/>
+    <col min="7" max="7" width="28.19921875" customWidth="1"/>
+    <col min="8" max="8" width="34" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="12" width="14.19921875" customWidth="1"/>
+    <col min="13" max="13" width="29.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="16" customHeight="1">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="2:13" ht="15" thickBot="1">
+      <c r="B2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="2:13" ht="15" thickBot="1">
+      <c r="B3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="13">
+        <v>36130</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="17">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="13">
+        <v>36130</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="17">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="13">
+        <v>36132</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="17">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="13">
+        <v>36133</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="2:13" ht="15" thickBot="1">
+      <c r="B9" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="2:13" ht="15" thickBot="1">
+      <c r="B10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="26"/>
+      <c r="G10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="24"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="2:13" ht="15" thickBot="1">
+      <c r="B11" s="19">
+        <v>1</v>
+      </c>
+      <c r="C11" s="19">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="26"/>
+      <c r="G11" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="20">
+        <v>2</v>
+      </c>
+      <c r="C12" s="20">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="26"/>
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="20">
+        <v>3</v>
+      </c>
+      <c r="C13" s="20">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="26"/>
+      <c r="G13" s="17">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="20">
+        <v>4</v>
+      </c>
+      <c r="C14" s="20">
+        <v>3</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="26"/>
+      <c r="G14" s="17">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="20">
+        <v>2</v>
+      </c>
+      <c r="C15" s="20">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="G15" s="17">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" ht="15" thickBot="1">
+      <c r="C20" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" spans="3:12" ht="15" thickBot="1">
+      <c r="C21" s="25"/>
+      <c r="D21" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="3:12">
+      <c r="C22" s="25"/>
+      <c r="D22" s="16">
+        <v>1</v>
+      </c>
+      <c r="E22" s="19">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="3:12">
+      <c r="C23" s="25"/>
+      <c r="D23" s="17">
+        <v>2</v>
+      </c>
+      <c r="E23" s="20">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="3:12">
+      <c r="C24" s="25"/>
+      <c r="D24" s="17">
+        <v>3</v>
+      </c>
+      <c r="E24" s="20">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="3:12">
+      <c r="C25" s="7"/>
+      <c r="D25" s="17">
+        <v>4</v>
+      </c>
+      <c r="E25" s="20">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="3:12">
+      <c r="E26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{3636AC8D-F888-6C4D-9EF0-C2C3A755F39B}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{2FFB8186-D351-7446-8317-24397126F5D4}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{8637C340-C6CA-0A4F-BEE0-876E4CC1FC41}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{181425B9-5122-6948-803C-A79AC0A00BF7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>